--- a/data/Subset1_WithDialogActs/MOLLY MCNINCH pt 1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/MOLLY MCNINCH pt 1.xlsx_with_dialog_acts.xlsx
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1969,12 +1969,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2505,12 +2505,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3189,12 +3189,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3645,12 +3645,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
